--- a/META/planning.xlsx
+++ b/META/planning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10320"/>
@@ -1182,23 +1182,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1230,6 +1213,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1499,7 +1499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1509,22 +1509,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="8" width="2.85546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="8" width="2.7109375" style="33" customWidth="1"/>
     <col min="9" max="86" width="2.85546875" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
+      <c r="A1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="122"/>
       <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1776,103 +1776,103 @@
       </c>
     </row>
     <row r="2" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="35"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="126"/>
-      <c r="AO2" s="126"/>
-      <c r="AP2" s="126"/>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="126"/>
-      <c r="AT2" s="126"/>
-      <c r="AU2" s="126"/>
-      <c r="AV2" s="126"/>
-      <c r="AW2" s="126"/>
-      <c r="AX2" s="128"/>
-      <c r="AY2" s="129"/>
-      <c r="AZ2" s="126"/>
-      <c r="BA2" s="126"/>
-      <c r="BB2" s="126"/>
-      <c r="BC2" s="126"/>
-      <c r="BD2" s="126"/>
-      <c r="BE2" s="127"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="126"/>
-      <c r="BH2" s="126"/>
-      <c r="BI2" s="126"/>
-      <c r="BJ2" s="126"/>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="128"/>
-      <c r="BM2" s="129"/>
-      <c r="BN2" s="126"/>
-      <c r="BO2" s="126"/>
-      <c r="BP2" s="126"/>
-      <c r="BQ2" s="126"/>
-      <c r="BR2" s="126"/>
-      <c r="BS2" s="127"/>
-      <c r="BT2" s="125"/>
-      <c r="BU2" s="126"/>
-      <c r="BV2" s="126"/>
-      <c r="BW2" s="126"/>
-      <c r="BX2" s="126"/>
-      <c r="BY2" s="126"/>
-      <c r="BZ2" s="128"/>
-      <c r="CA2" s="129"/>
-      <c r="CB2" s="126"/>
-      <c r="CC2" s="126"/>
-      <c r="CD2" s="126"/>
-      <c r="CE2" s="126"/>
-      <c r="CF2" s="126"/>
-      <c r="CG2" s="127"/>
-      <c r="CH2" s="130"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="114"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="115"/>
+      <c r="AU2" s="115"/>
+      <c r="AV2" s="115"/>
+      <c r="AW2" s="115"/>
+      <c r="AX2" s="117"/>
+      <c r="AY2" s="118"/>
+      <c r="AZ2" s="115"/>
+      <c r="BA2" s="115"/>
+      <c r="BB2" s="115"/>
+      <c r="BC2" s="115"/>
+      <c r="BD2" s="115"/>
+      <c r="BE2" s="116"/>
+      <c r="BF2" s="114"/>
+      <c r="BG2" s="115"/>
+      <c r="BH2" s="115"/>
+      <c r="BI2" s="115"/>
+      <c r="BJ2" s="115"/>
+      <c r="BK2" s="115"/>
+      <c r="BL2" s="117"/>
+      <c r="BM2" s="118"/>
+      <c r="BN2" s="115"/>
+      <c r="BO2" s="115"/>
+      <c r="BP2" s="115"/>
+      <c r="BQ2" s="115"/>
+      <c r="BR2" s="115"/>
+      <c r="BS2" s="116"/>
+      <c r="BT2" s="114"/>
+      <c r="BU2" s="115"/>
+      <c r="BV2" s="115"/>
+      <c r="BW2" s="115"/>
+      <c r="BX2" s="115"/>
+      <c r="BY2" s="115"/>
+      <c r="BZ2" s="117"/>
+      <c r="CA2" s="118"/>
+      <c r="CB2" s="115"/>
+      <c r="CC2" s="115"/>
+      <c r="CD2" s="115"/>
+      <c r="CE2" s="115"/>
+      <c r="CF2" s="115"/>
+      <c r="CG2" s="116"/>
+      <c r="CH2" s="119"/>
     </row>
     <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="127"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -1961,10 +1961,10 @@
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
@@ -2166,11 +2166,11 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="109"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="98"/>
       <c r="Z6" s="50"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
@@ -2513,10 +2513,10 @@
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -2633,8 +2633,8 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="110"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="99"/>
       <c r="AD11" s="82"/>
       <c r="AE11" s="50"/>
       <c r="AF11" s="9"/>
@@ -2970,38 +2970,38 @@
       <c r="CH14" s="83"/>
     </row>
     <row r="15" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="126"/>
-      <c r="Y15" s="126"/>
-      <c r="Z15" s="126"/>
-      <c r="AA15" s="126"/>
-      <c r="AB15" s="126"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="125"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="115"/>
+      <c r="AB15" s="115"/>
+      <c r="AC15" s="116"/>
+      <c r="AD15" s="114"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
@@ -3063,10 +3063,10 @@
       <c r="A16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -3075,11 +3075,11 @@
       <c r="I16" s="43"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="122"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="111"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
@@ -3171,11 +3171,11 @@
       <c r="I17" s="43"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="113"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="102"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
@@ -3251,10 +3251,10 @@
       <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -3263,18 +3263,18 @@
       <c r="I18" s="43"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="123"/>
-      <c r="W18" s="124"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="113"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -3340,7 +3340,7 @@
       <c r="CH18" s="73"/>
     </row>
     <row r="19" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="14" t="s">
         <v>6</v>
       </c>
@@ -3355,11 +3355,11 @@
       <c r="I19" s="44"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="105"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="94"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
@@ -3432,7 +3432,7 @@
       <c r="CH19" s="74"/>
     </row>
     <row r="20" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="89" t="s">
         <v>6</v>
       </c>
@@ -3449,11 +3449,11 @@
       <c r="I20" s="44"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="105"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="94"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -3526,7 +3526,7 @@
       <c r="CH20" s="74"/>
     </row>
     <row r="21" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="89" t="s">
         <v>6</v>
       </c>
@@ -3544,8 +3544,8 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="105"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="94"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -3618,11 +3618,11 @@
       <c r="CH21" s="74"/>
     </row>
     <row r="22" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="100" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="23"/>
@@ -3637,14 +3637,14 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="55"/>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="115"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="104"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
@@ -3714,7 +3714,7 @@
       <c r="B23" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="101" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -3733,14 +3733,14 @@
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="57"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="119"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="108"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
@@ -3806,11 +3806,11 @@
       <c r="CH23" s="76"/>
     </row>
     <row r="24" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="27"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -3899,10 +3899,10 @@
       <c r="A25" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="92"/>
+      <c r="C25" s="127"/>
       <c r="D25" s="21"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -4083,10 +4083,10 @@
       <c r="A27" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="92"/>
+      <c r="C27" s="127"/>
       <c r="D27" s="21"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
@@ -4264,11 +4264,11 @@
       <c r="CH28" s="76"/>
     </row>
     <row r="29" spans="1:86" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="27"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -4357,10 +4357,10 @@
       <c r="A30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="92"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="21"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -4541,10 +4541,10 @@
       <c r="A32" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="92"/>
+      <c r="C32" s="127"/>
       <c r="D32" s="21"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -4899,12 +4899,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A2:C2"/>
@@ -4913,11 +4907,17 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;LP&amp;&amp;O&amp;O Computerwetenschappen, Team Brons&amp;C&amp;"-,Bold"&amp;12&amp;O
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;LP&amp;&amp;O&amp;O Computerwetenschappen, Team Brons&amp;C&amp;"-,Vet"&amp;12&amp;O
 Planning (taken, verantwoordelijkheden en Ganttchart)&amp;R&amp;P/&amp;N</oddHeader>
   </headerFooter>
 </worksheet>
